--- a/Test/Test2.xlsx
+++ b/Test/Test2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
-  <workbookPr showInkAnnotation="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ExcelToHtml\Test\"/>
@@ -290,7 +290,7 @@
     <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="167" formatCode="_)@"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -388,13 +388,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="26"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -411,13 +404,6 @@
     </font>
     <font>
       <sz val="22"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -509,7 +495,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,7 +516,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCEBE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,140 +581,21 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -725,45 +610,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -776,6 +782,46 @@
     <cellStyle name="Total" xfId="4" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="37">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Corbel"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="3" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -814,9 +860,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -841,9 +887,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -869,9 +915,9 @@
       </font>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -898,9 +944,9 @@
       </font>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -926,9 +972,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -952,9 +998,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -980,9 +1026,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1008,9 +1054,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1035,9 +1081,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1061,9 +1107,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1088,9 +1134,9 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1098,46 +1144,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Corbel"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5932,25 +5938,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InventoryTable" displayName="InventoryTable" ref="A11:K17" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InventoryTable" displayName="InventoryTable" ref="A11:K17" totalsRowCount="1" headerRowDxfId="0" dataDxfId="2" totalsRowDxfId="1">
   <autoFilter ref="A11:K16"/>
   <tableColumns count="11">
-    <tableColumn id="21" name="Item #" totalsRowLabel="TOTALS" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="21" name="Item #" totalsRowLabel="TOTALS" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>A11+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Room/_x000a_area" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="3" name="Room/_x000a_area" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <totalsRowFormula>"INVENTORY ITEMS: "&amp;SUBTOTAL(103,InventoryTable[Room/
 area])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Item/_x000a_description" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="5" name="Make/_x000a_model" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="6" name="Serial number/_x000a_ID number" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="7" name="Date_x000a_purchased" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="8" name="Where purchased" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="9" name="Purchase_x000a_ price" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="10" name="Estimated_x000a_current value" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="13" name="Notes" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="14" name="Photo?" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="Item/_x000a_description" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="5" name="Make/_x000a_model" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="6" name="Serial number/_x000a_ID number" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="7" name="Date_x000a_purchased" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="8" name="Where purchased" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="9" name="Purchase_x000a_ price" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="10" name="Estimated_x000a_current value" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="13" name="Notes" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="14" name="Photo?" dataDxfId="7" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Home Inventory Table" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5962,13 +5968,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="RoomLookup" displayName="RoomLookup" ref="A3:A15" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="RoomLookup" displayName="RoomLookup" ref="A3:A15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A3:A15"/>
   <sortState ref="A4:A15">
     <sortCondition ref="A3:A15"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="Room/Area" dataDxfId="0"/>
+    <tableColumn id="1" name="Room/Area" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Home Inventory Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -6151,414 +6157,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor theme="3"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="A10:K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="26.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="2"/>
-    <col min="13" max="16384" width="9.33203125" style="3"/>
+    <col min="1" max="1" width="11.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="16384" width="9.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
-    <row r="2" spans="1:14" s="31" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="39">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="13">
         <f>SUM(InventoryTable[[#Totals],[Estimated
 current value]])</f>
         <v>4040</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="41" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="59">
+      <c r="H2" s="55">
         <f ca="1">TODAY()-35</f>
-        <v>42893</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="33"/>
+        <v>42894</v>
+      </c>
+      <c r="I2" s="55"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:14" s="31" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="G4" s="35" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:14" s="31" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="67"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="G5" s="35" t="s">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="61">
         <v>8005550123</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="60" t="s">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="G6" s="35" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="60"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="G7" s="35" t="s">
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="54"/>
-      <c r="N7" s="31"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="60" t="s">
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="60">
         <v>4355550187</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="G8" s="35" t="s">
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="61">
         <v>8005550156</v>
       </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="N8" s="31"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="60"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="G9" s="35" t="s">
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" ht="69" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
+    <row r="10" spans="1:14" s="4" customFormat="1" ht="69" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I11" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="57" t="s">
+      <c r="K11" s="71" t="s">
         <v>1</v>
       </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+      <c r="A12" s="22">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="27">
         <v>40300</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="28">
         <v>2000</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="29">
         <v>2000</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="1" t="s">
+      <c r="J12" s="30"/>
+      <c r="K12" s="31" t="s">
         <v>19</v>
       </c>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+      <c r="A13" s="22">
         <f t="shared" ref="A13:A16" si="0">A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="27">
         <v>40488</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="28">
         <v>1500</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="29">
         <v>1000</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="1" t="s">
+      <c r="J13" s="30"/>
+      <c r="K13" s="31" t="s">
         <v>20</v>
       </c>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
     </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="38">
         <v>40617</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="39">
         <v>560</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="40">
         <v>550</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="8" t="s">
+      <c r="J14" s="41"/>
+      <c r="K14" s="42" t="s">
         <v>20</v>
       </c>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+      <c r="A15" s="43">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="46">
         <v>40695</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="40">
         <v>240</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="40">
         <v>200</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="20" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+      <c r="A16" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="46">
         <v>40774</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="40">
         <v>300</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="40">
         <v>290</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="20" t="s">
+      <c r="J16" s="41"/>
+      <c r="K16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
     </row>
-    <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="24" t="str">
+      <c r="B17" s="48" t="str">
         <f>"INVENTORY ITEMS: "&amp;SUBTOTAL(103,InventoryTable[Room/
 area])</f>
         <v>INVENTORY ITEMS: 5</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="47">
+      <c r="C17" s="32"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51">
         <f>SUBTOTAL(109,InventoryTable[Purchase
  price])</f>
         <v>4600</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="52">
         <f>SUBTOTAL(109,InventoryTable[Estimated
 current value])</f>
         <v>4040</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="H7:J7"/>
@@ -6572,6 +6661,7 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I12:I16">
@@ -6635,7 +6725,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:A15"/>
@@ -6648,77 +6738,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="10" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Test/Test2.xlsx
+++ b/Test/Test2.xlsx
@@ -290,7 +290,7 @@
     <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="167" formatCode="_)@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -319,28 +319,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -354,34 +332,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="26"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -405,22 +357,6 @@
     <font>
       <sz val="22"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -465,14 +401,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="2" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -480,19 +408,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
-      <color theme="0"/>
+      <sz val="26"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3E9D94"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFCC3104"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF83874B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF4F998E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF3E9D94"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF274B46"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0"/>
+      <color rgb="FF3A7269"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -534,7 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
+        <fgColor rgb="FF4F998E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,27 +592,27 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -610,166 +621,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="22" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -784,22 +786,326 @@
   <dxfs count="37">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="3" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="3" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Corbel"/>
-        <scheme val="major"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -823,327 +1129,23 @@
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="3" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="3" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <name val="Corbel"/>
+        <scheme val="major"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor theme="3"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5938,25 +5940,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InventoryTable" displayName="InventoryTable" ref="A11:K17" totalsRowCount="1" headerRowDxfId="0" dataDxfId="2" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InventoryTable" displayName="InventoryTable" ref="A11:K17" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
   <autoFilter ref="A11:K16"/>
   <tableColumns count="11">
-    <tableColumn id="21" name="Item #" totalsRowLabel="TOTALS" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="21" name="Item #" totalsRowLabel="TOTALS" dataDxfId="24" totalsRowDxfId="10">
       <calculatedColumnFormula>A11+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Room/_x000a_area" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="3" name="Room/_x000a_area" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="9">
       <totalsRowFormula>"INVENTORY ITEMS: "&amp;SUBTOTAL(103,InventoryTable[Room/
 area])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Item/_x000a_description" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="5" name="Make/_x000a_model" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="6" name="Serial number/_x000a_ID number" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="7" name="Date_x000a_purchased" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="8" name="Where purchased" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="9" name="Purchase_x000a_ price" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="10" name="Estimated_x000a_current value" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="13" name="Notes" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="14" name="Photo?" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="4" name="Item/_x000a_description" dataDxfId="22" totalsRowDxfId="8"/>
+    <tableColumn id="5" name="Make/_x000a_model" dataDxfId="21" totalsRowDxfId="7"/>
+    <tableColumn id="6" name="Serial number/_x000a_ID number" dataDxfId="20" totalsRowDxfId="6"/>
+    <tableColumn id="7" name="Date_x000a_purchased" dataDxfId="19" totalsRowDxfId="5"/>
+    <tableColumn id="8" name="Where purchased" dataDxfId="18" totalsRowDxfId="4"/>
+    <tableColumn id="9" name="Purchase_x000a_ price" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="3"/>
+    <tableColumn id="10" name="Estimated_x000a_current value" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="2"/>
+    <tableColumn id="13" name="Notes" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="14" name="Photo?" dataDxfId="14" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Home Inventory Table" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5968,13 +5970,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="RoomLookup" displayName="RoomLookup" ref="A3:A15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="RoomLookup" displayName="RoomLookup" ref="A3:A15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A3:A15"/>
   <sortState ref="A4:A15">
     <sortCondition ref="A3:A15"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="Room/Area" dataDxfId="3"/>
+    <tableColumn id="1" name="Room/Area" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="Home Inventory Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -6164,7 +6166,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="A10:K11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6185,465 +6187,465 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="13">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18">
         <f>SUM(InventoryTable[[#Totals],[Estimated
 current value]])</f>
         <v>4040</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="55">
+      <c r="H2" s="21">
         <f ca="1">TODAY()-35</f>
-        <v>42894</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+        <v>42896</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="30">
         <v>8005550123</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="19" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="19" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="18"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="32">
         <v>4355550187</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="19" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="30">
         <v>8005550156</v>
       </c>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="18"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="19" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="69" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="H11" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="71" t="s">
+      <c r="K11" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="A12" s="39">
         <v>1</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="44">
         <v>40300</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="45">
         <v>2000</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="46">
         <v>2000</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31" t="s">
+      <c r="J12" s="47"/>
+      <c r="K12" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="A13" s="39">
         <f t="shared" ref="A13:A16" si="0">A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="44">
         <v>40488</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="45">
         <v>1500</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="46">
         <v>1000</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31" t="s">
+      <c r="J13" s="47"/>
+      <c r="K13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
+      <c r="A14" s="48">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="53">
         <v>40617</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="54">
         <v>560</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="55">
         <v>550</v>
       </c>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42" t="s">
+      <c r="J14" s="56"/>
+      <c r="K14" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43">
+      <c r="A15" s="57">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="60">
         <v>40695</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="55">
         <v>240</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="55">
         <v>200</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="43" t="s">
+      <c r="J15" s="56"/>
+      <c r="K15" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43">
+      <c r="A16" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="60">
         <v>40774</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="55">
         <v>300</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="55">
         <v>290</v>
       </c>
-      <c r="J16" s="41"/>
-      <c r="K16" s="43" t="s">
+      <c r="J16" s="56"/>
+      <c r="K16" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="48" t="str">
+      <c r="B17" s="62" t="str">
         <f>"INVENTORY ITEMS: "&amp;SUBTOTAL(103,InventoryTable[Room/
 area])</f>
         <v>INVENTORY ITEMS: 5</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51">
+      <c r="C17" s="38"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="65">
         <f>SUBTOTAL(109,InventoryTable[Purchase
  price])</f>
         <v>4600</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="66">
         <f>SUBTOTAL(109,InventoryTable[Estimated
 current value])</f>
         <v>4040</v>
       </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="15">
